--- a/office 1/DAILY_SALES_REPORT.xlsx
+++ b/office 1/DAILY_SALES_REPORT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MAIN-SERVER\__users__\__management__\real_enterprise\office 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main-server\__users__\__management__\real_enterprise\office 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729616A7-4135-42C6-859E-9E1ED47BFD21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E413BDC-A960-4D71-985A-17AC03B17CDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REQUIREMENTS" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="May 2" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="May 1" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="April 30, 2025" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="04-29-25" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="04-29-25" sheetId="7" r:id="rId6"/>
     <sheet name="04272025" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -3566,14 +3566,14 @@
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="44.08984375" customWidth="1"/>
-    <col min="3" max="26" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.5">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.5">
+    <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.5">
+    <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.5">
+    <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.5">
+    <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.5">
+    <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.5">
+    <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.5">
+    <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.5">
+    <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.5">
+    <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.5">
+    <row r="11" spans="1:26">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.5">
+    <row r="12" spans="1:26">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.5">
+    <row r="13" spans="1:26">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.5">
+    <row r="14" spans="1:26">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.5">
+    <row r="15" spans="1:26">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.5">
+    <row r="16" spans="1:26">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.5">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.5">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.5">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.5">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.5">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.5">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.5">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.5">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.5">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.5">
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.5">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.5">
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.5">
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.5">
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.5">
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.5">
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.5">
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.5">
+    <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.5">
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.5">
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.5">
+    <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.5">
+    <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.5">
+    <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.5">
+    <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.5">
+    <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.5">
+    <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.5">
+    <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.5">
+    <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.5">
+    <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
         <v>89</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.5">
+    <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.5">
+    <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
         <v>93</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.5">
+    <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.5">
+    <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.5">
+    <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
         <v>99</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.5">
+    <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.5">
+    <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
         <v>101</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.5">
+    <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
         <v>103</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.5">
+    <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
         <v>105</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.5">
+    <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
         <v>107</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.5">
+    <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
         <v>109</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.5">
+    <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
         <v>111</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.5">
+    <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.5">
+    <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
         <v>115</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.5">
+    <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
         <v>117</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.5">
+    <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
         <v>119</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.5">
+    <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
         <v>121</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.5">
+    <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
         <v>123</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="14.5">
+    <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
         <v>125</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.5">
+    <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
         <v>127</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.5">
+    <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
         <v>129</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.5">
+    <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
         <v>131</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.5">
+    <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
         <v>133</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.5">
+    <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
         <v>135</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.5">
+    <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
         <v>137</v>
       </c>
@@ -5821,31 +5821,31 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="44" zoomScalePageLayoutView="20" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="44" zoomScalePageLayoutView="20" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="48.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.5703125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="27" width="8.7265625" customWidth="1"/>
+    <col min="9" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22">
+    <row r="1" spans="1:9" ht="22.5">
       <c r="B1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="24.5">
+    <row r="2" spans="1:9" ht="24.75">
       <c r="B2" s="13"/>
       <c r="C2" s="67" t="s">
         <v>329</v>
@@ -5876,14 +5876,14 @@
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="18">
+    <row r="5" spans="1:9" ht="19.5">
       <c r="B5" s="9"/>
       <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="18">
+    <row r="6" spans="1:9" ht="19.5">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="19" t="s">
@@ -5898,7 +5898,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="18.75">
       <c r="B7" s="24" t="s">
         <v>333</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5">
+    <row r="8" spans="1:9">
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
@@ -5927,7 +5927,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="14.5">
+    <row r="9" spans="1:9">
       <c r="B9" s="32"/>
       <c r="C9" s="28"/>
       <c r="D9" s="29"/>
@@ -5935,7 +5935,7 @@
       <c r="G9" s="30"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:9" ht="14.5">
+    <row r="10" spans="1:9">
       <c r="B10" s="32"/>
       <c r="C10" s="28"/>
       <c r="D10" s="29"/>
@@ -5943,7 +5943,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:9" ht="14.5">
+    <row r="11" spans="1:9">
       <c r="B11" s="32"/>
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
@@ -5951,7 +5951,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:9" ht="14.5">
+    <row r="12" spans="1:9">
       <c r="B12" s="32"/>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
@@ -5959,7 +5959,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:9" ht="14.5">
+    <row r="13" spans="1:9">
       <c r="B13" s="32"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
@@ -5967,7 +5967,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:9" ht="14.5">
+    <row r="14" spans="1:9">
       <c r="B14" s="32"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
@@ -5975,7 +5975,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:9" ht="14.5">
+    <row r="15" spans="1:9">
       <c r="B15" s="32"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
@@ -5983,7 +5983,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="14.5">
+    <row r="16" spans="1:9">
       <c r="B16" s="32"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
@@ -5991,7 +5991,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5">
+    <row r="17" spans="2:8">
       <c r="B17" s="32">
         <f>SUM(B8,B9,B10,B11,B12,B13,B14,B15)</f>
         <v>0</v>
@@ -6002,13 +6002,13 @@
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5">
+    <row r="18" spans="2:8">
       <c r="B18" s="9"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="2:8" ht="15.5">
+    <row r="19" spans="2:8" ht="15.75">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>339</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.5">
+    <row r="20" spans="2:8" ht="15.75">
       <c r="B20" s="34"/>
       <c r="C20" s="40" t="s">
         <v>340</v>
@@ -12137,27 +12137,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="48.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.5703125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="27" width="8.7265625" customWidth="1"/>
+    <col min="9" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22">
+    <row r="1" spans="1:9" ht="22.5">
       <c r="B1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="24.5">
+    <row r="2" spans="1:9" ht="24.75">
       <c r="B2" s="13"/>
       <c r="C2" s="67" t="s">
         <v>329</v>
@@ -12188,14 +12188,14 @@
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="18">
+    <row r="5" spans="1:9" ht="19.5">
       <c r="B5" s="9"/>
       <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="18">
+    <row r="6" spans="1:9" ht="19.5">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="19" t="s">
@@ -12210,7 +12210,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="18.75">
       <c r="B7" s="24" t="s">
         <v>333</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5">
+    <row r="8" spans="1:9">
       <c r="B8" s="27">
         <v>1</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.5">
+    <row r="9" spans="1:9">
       <c r="B9" s="32"/>
       <c r="C9" s="30" t="s">
         <v>312</v>
@@ -12265,7 +12265,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.5">
+    <row r="10" spans="1:9">
       <c r="B10" s="32"/>
       <c r="C10" s="30" t="s">
         <v>314</v>
@@ -12281,7 +12281,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.5">
+    <row r="11" spans="1:9">
       <c r="B11" s="27">
         <v>1</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.5">
+    <row r="12" spans="1:9">
       <c r="B12" s="32"/>
       <c r="C12" s="30" t="s">
         <v>316</v>
@@ -12311,7 +12311,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:9" ht="14.5">
+    <row r="13" spans="1:9">
       <c r="B13" s="32"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
@@ -12319,7 +12319,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:9" ht="14.5">
+    <row r="14" spans="1:9">
       <c r="B14" s="32"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
@@ -12327,7 +12327,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:9" ht="14.5">
+    <row r="15" spans="1:9">
       <c r="B15" s="32"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
@@ -12335,7 +12335,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="14.5">
+    <row r="16" spans="1:9">
       <c r="B16" s="32"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
@@ -12343,7 +12343,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:9" ht="14.5">
+    <row r="17" spans="2:9">
       <c r="B17" s="32">
         <f>SUM(B8,B9,B10,B11,B12,B13,B14,B15)</f>
         <v>2</v>
@@ -12354,13 +12354,13 @@
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:9" ht="14.5">
+    <row r="18" spans="2:9">
       <c r="B18" s="9"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="2:9" ht="15.5">
+    <row r="19" spans="2:9" ht="15.75">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>339</v>
@@ -12381,7 +12381,7 @@
         <v>5332</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15.5">
+    <row r="20" spans="2:9" ht="15.75">
       <c r="B20" s="34"/>
       <c r="C20" s="40" t="s">
         <v>340</v>
@@ -18588,27 +18588,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="48.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.5703125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="27" width="8.7265625" customWidth="1"/>
+    <col min="9" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22">
+    <row r="1" spans="1:9" ht="22.5">
       <c r="B1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="24.5">
+    <row r="2" spans="1:9" ht="24.75">
       <c r="B2" s="13"/>
       <c r="C2" s="67" t="s">
         <v>329</v>
@@ -18639,14 +18639,14 @@
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="18">
+    <row r="5" spans="1:9" ht="19.5">
       <c r="B5" s="9"/>
       <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="18">
+    <row r="6" spans="1:9" ht="19.5">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="19" t="s">
@@ -18661,7 +18661,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="18.75">
       <c r="B7" s="24" t="s">
         <v>333</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5">
+    <row r="8" spans="1:9">
       <c r="B8" s="27">
         <v>5</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.5">
+    <row r="9" spans="1:9">
       <c r="B9" s="27">
         <v>1</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>8810</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.5">
+    <row r="10" spans="1:9">
       <c r="B10" s="27">
         <v>3</v>
       </c>
@@ -18740,7 +18740,7 @@
         <v>5914</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.5">
+    <row r="11" spans="1:9">
       <c r="B11" s="27">
         <v>2</v>
       </c>
@@ -18756,7 +18756,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:9" ht="14.5">
+    <row r="12" spans="1:9">
       <c r="B12" s="27">
         <v>1</v>
       </c>
@@ -18770,7 +18770,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:9" ht="14.5">
+    <row r="13" spans="1:9">
       <c r="B13" s="27">
         <v>1</v>
       </c>
@@ -18784,7 +18784,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:9" ht="14.5">
+    <row r="14" spans="1:9">
       <c r="B14" s="27">
         <v>1</v>
       </c>
@@ -18798,7 +18798,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:9" ht="14.5">
+    <row r="15" spans="1:9">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -18813,7 +18813,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="14.5">
+    <row r="16" spans="1:9">
       <c r="B16" s="32"/>
       <c r="C16" s="30" t="s">
         <v>140</v>
@@ -18825,7 +18825,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:9" ht="14.5">
+    <row r="17" spans="2:9">
       <c r="B17" s="27">
         <v>1</v>
       </c>
@@ -18841,7 +18841,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:9" ht="14.5">
+    <row r="18" spans="2:9">
       <c r="B18" s="27">
         <v>1</v>
       </c>
@@ -18855,7 +18855,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="2:9" ht="14.5">
+    <row r="19" spans="2:9">
       <c r="B19" s="27">
         <v>1</v>
       </c>
@@ -18869,7 +18869,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="2:9" ht="14.5">
+    <row r="20" spans="2:9">
       <c r="B20" s="27">
         <v>1</v>
       </c>
@@ -18883,7 +18883,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="2:9" ht="14.5">
+    <row r="21" spans="2:9">
       <c r="B21" s="27">
         <v>1</v>
       </c>
@@ -18897,7 +18897,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="2:9" ht="14.5">
+    <row r="22" spans="2:9">
       <c r="B22" s="27">
         <v>1</v>
       </c>
@@ -18911,7 +18911,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="2:9" ht="14.5">
+    <row r="23" spans="2:9">
       <c r="B23" s="32"/>
       <c r="C23" s="30" t="s">
         <v>98</v>
@@ -18923,7 +18923,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="29"/>
     </row>
-    <row r="24" spans="2:9" ht="14.5">
+    <row r="24" spans="2:9">
       <c r="B24" s="32">
         <f>SUM(B8,B9,B10,B11,B12,B13,B14,B15)</f>
         <v>14</v>
@@ -18934,13 +18934,13 @@
       <c r="G24" s="28"/>
       <c r="H24" s="29"/>
     </row>
-    <row r="25" spans="2:9" ht="14.5">
+    <row r="25" spans="2:9">
       <c r="B25" s="9"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="2:9" ht="15.5">
+    <row r="26" spans="2:9" ht="15.75">
       <c r="B26" s="34"/>
       <c r="C26" s="35" t="s">
         <v>339</v>
@@ -18961,7 +18961,7 @@
         <v>15144</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15.5">
+    <row r="27" spans="2:9" ht="15.75">
       <c r="B27" s="34"/>
       <c r="C27" s="40" t="s">
         <v>340</v>
@@ -25221,27 +25221,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="48.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.5703125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="27" width="8.7265625" customWidth="1"/>
+    <col min="9" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22">
+    <row r="1" spans="1:9" ht="22.5">
       <c r="B1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="24.5">
+    <row r="2" spans="1:9" ht="24.75">
       <c r="B2" s="13"/>
       <c r="C2" s="67" t="s">
         <v>329</v>
@@ -25272,14 +25272,14 @@
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="18">
+    <row r="5" spans="1:9" ht="19.5">
       <c r="B5" s="9"/>
       <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="18">
+    <row r="6" spans="1:9" ht="19.5">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="19" t="s">
@@ -25294,7 +25294,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="18.75">
       <c r="B7" s="24" t="s">
         <v>333</v>
       </c>
@@ -25315,7 +25315,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5">
+    <row r="8" spans="1:9">
       <c r="B8" s="27"/>
       <c r="C8" s="30" t="s">
         <v>48</v>
@@ -25331,7 +25331,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.5">
+    <row r="9" spans="1:9">
       <c r="B9" s="32"/>
       <c r="C9" s="30" t="s">
         <v>34</v>
@@ -25347,7 +25347,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.5">
+    <row r="10" spans="1:9">
       <c r="B10" s="32"/>
       <c r="C10" s="30" t="s">
         <v>220</v>
@@ -25361,7 +25361,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:9" ht="14.5">
+    <row r="11" spans="1:9">
       <c r="B11" s="32"/>
       <c r="C11" s="30" t="s">
         <v>255</v>
@@ -25373,7 +25373,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:9" ht="14.5">
+    <row r="12" spans="1:9">
       <c r="B12" s="32"/>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
@@ -25381,7 +25381,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:9" ht="14.5">
+    <row r="13" spans="1:9">
       <c r="B13" s="32"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
@@ -25389,7 +25389,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:9" ht="14.5">
+    <row r="14" spans="1:9">
       <c r="B14" s="32"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
@@ -25397,7 +25397,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:9" ht="14.5">
+    <row r="15" spans="1:9">
       <c r="B15" s="32"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
@@ -25405,7 +25405,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="14.5">
+    <row r="16" spans="1:9">
       <c r="B16" s="32"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
@@ -25413,7 +25413,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5">
+    <row r="17" spans="2:8">
       <c r="B17" s="32"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -25421,13 +25421,13 @@
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5">
+    <row r="18" spans="2:8">
       <c r="B18" s="9"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="2:8" ht="15.5">
+    <row r="19" spans="2:8" ht="15.75">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>339</v>
@@ -25448,7 +25448,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.5">
+    <row r="20" spans="2:8" ht="15.75">
       <c r="B20" s="34"/>
       <c r="C20" s="40" t="s">
         <v>340</v>
@@ -31566,31 +31566,31 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="48.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.5703125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="27" width="8.7265625" customWidth="1"/>
+    <col min="9" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22">
+    <row r="1" spans="1:9" ht="22.5">
       <c r="B1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="24.5">
+    <row r="2" spans="1:9" ht="24.75">
       <c r="B2" s="13"/>
       <c r="C2" s="67" t="s">
         <v>329</v>
@@ -31621,14 +31621,14 @@
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="18">
+    <row r="5" spans="1:9" ht="19.5">
       <c r="B5" s="9"/>
       <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="18">
+    <row r="6" spans="1:9" ht="19.5">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="19" t="s">
@@ -31643,7 +31643,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="18.75">
       <c r="B7" s="24" t="s">
         <v>333</v>
       </c>
@@ -31664,7 +31664,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5">
+    <row r="8" spans="1:9">
       <c r="B8" s="27"/>
       <c r="C8" s="30" t="s">
         <v>300</v>
@@ -31680,7 +31680,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.5">
+    <row r="9" spans="1:9">
       <c r="B9" s="32"/>
       <c r="C9" s="30" t="s">
         <v>34</v>
@@ -31698,7 +31698,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.5">
+    <row r="10" spans="1:9">
       <c r="B10" s="32"/>
       <c r="C10" s="28"/>
       <c r="D10" s="29"/>
@@ -31710,7 +31710,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.5">
+    <row r="11" spans="1:9">
       <c r="B11" s="32"/>
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
@@ -31718,7 +31718,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:9" ht="14.5">
+    <row r="12" spans="1:9">
       <c r="B12" s="32"/>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
@@ -31726,7 +31726,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:9" ht="14.5">
+    <row r="13" spans="1:9">
       <c r="B13" s="32"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
@@ -31734,7 +31734,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:9" ht="14.5">
+    <row r="14" spans="1:9">
       <c r="B14" s="32"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
@@ -31742,7 +31742,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:9" ht="14.5">
+    <row r="15" spans="1:9">
       <c r="B15" s="32"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
@@ -31750,7 +31750,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="14.5">
+    <row r="16" spans="1:9">
       <c r="B16" s="32"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
@@ -31758,7 +31758,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5">
+    <row r="17" spans="2:8">
       <c r="B17" s="32"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -31766,13 +31766,13 @@
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5">
+    <row r="18" spans="2:8">
       <c r="B18" s="9"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="2:8" ht="15.5">
+    <row r="19" spans="2:8" ht="15.75">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>339</v>
@@ -31793,7 +31793,7 @@
         <v>7538</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.5">
+    <row r="20" spans="2:8" ht="15.75">
       <c r="B20" s="34"/>
       <c r="C20" s="40" t="s">
         <v>340</v>
@@ -37966,29 +37966,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="48.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.5703125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="27" width="8.7265625" customWidth="1"/>
+    <col min="11" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22">
+    <row r="1" spans="1:13" ht="22.5">
       <c r="B1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="24.5">
+    <row r="2" spans="1:13" ht="24.75">
       <c r="B2" s="13"/>
       <c r="C2" s="67" t="s">
         <v>329</v>
@@ -38019,14 +38019,14 @@
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:13" ht="18">
+    <row r="5" spans="1:13" ht="19.5">
       <c r="B5" s="9"/>
       <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:13" ht="18">
+    <row r="6" spans="1:13" ht="19.5">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="19" t="s">
@@ -38041,7 +38041,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:13" ht="17">
+    <row r="7" spans="1:13" ht="18.75">
       <c r="B7" s="24" t="s">
         <v>333</v>
       </c>
@@ -38062,7 +38062,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.5">
+    <row r="8" spans="1:13">
       <c r="B8" s="27">
         <v>1</v>
       </c>
@@ -38080,7 +38080,7 @@
         <v>3897</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.5">
+    <row r="9" spans="1:13">
       <c r="B9" s="27">
         <v>1</v>
       </c>
@@ -38098,7 +38098,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.5">
+    <row r="10" spans="1:13">
       <c r="B10" s="27">
         <v>1</v>
       </c>
@@ -38116,7 +38116,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.5">
+    <row r="11" spans="1:13">
       <c r="B11" s="27">
         <v>1</v>
       </c>
@@ -38137,7 +38137,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.5">
+    <row r="12" spans="1:13">
       <c r="B12" s="27">
         <v>1</v>
       </c>
@@ -38155,7 +38155,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.5">
+    <row r="13" spans="1:13">
       <c r="B13" s="32"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
@@ -38167,7 +38167,7 @@
         <v>4285</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.5">
+    <row r="14" spans="1:13">
       <c r="B14" s="32"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
@@ -38175,7 +38175,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:13" ht="14.5">
+    <row r="15" spans="1:13">
       <c r="B15" s="32"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
@@ -38183,7 +38183,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.5">
+    <row r="16" spans="1:13">
       <c r="B16" s="32"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
@@ -38191,7 +38191,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:8" ht="14.5">
+    <row r="17" spans="2:8">
       <c r="B17" s="27">
         <v>3</v>
       </c>
@@ -38201,13 +38201,13 @@
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:8" ht="14.5">
+    <row r="18" spans="2:8">
       <c r="B18" s="9"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="2:8" ht="15.5">
+    <row r="19" spans="2:8" ht="15.75">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>339</v>
@@ -38228,7 +38228,7 @@
         <v>10167</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.5">
+    <row r="20" spans="2:8" ht="15.75">
       <c r="B20" s="34"/>
       <c r="C20" s="40" t="s">
         <v>340</v>

--- a/office 1/DAILY_SALES_REPORT.xlsx
+++ b/office 1/DAILY_SALES_REPORT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main-server\__users__\__management__\real_enterprise\office 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MAIN-SERVER\__users__\__management__\real_enterprise\office 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E413BDC-A960-4D71-985A-17AC03B17CDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D77CA9-F551-410E-8F26-1B6F62F158A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REQUIREMENTS" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,12 @@
     <sheet name="May 2" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="May 1" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="April 30, 2025" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="04-29-25" sheetId="7" r:id="rId6"/>
+    <sheet name="04-29-25" sheetId="7" state="hidden" r:id="rId6"/>
     <sheet name="04272025" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="NAMES_INVENTORY">_TBL_INVENTORY[NAME]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -2941,7 +2944,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:B171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="_TBL_INVENTORY" displayName="_TBL_INVENTORY" ref="A1:B171">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NAME"/>
@@ -3564,16 +3567,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1053"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A155" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3581,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="14.5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3589,7 +3594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="14.5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3597,7 +3602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="14.5">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3605,7 +3610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="14.5">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3613,7 +3618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="14.5">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3621,7 +3626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="14.5">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3629,7 +3634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.5">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3637,7 +3642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="14.5">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -3645,7 +3650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.5">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -3656,7 +3661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.5">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -3664,7 +3669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.5">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3672,7 +3677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.5">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -3680,7 +3685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.5">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -3688,7 +3693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="14.5">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -3696,7 +3701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="14.5">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -3704,7 +3709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="14.5">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -3712,7 +3717,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="14.5">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -3720,7 +3725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="14.5">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -3728,7 +3733,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="14.5">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -3736,7 +3741,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="14.5">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -3744,7 +3749,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="14.5">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -3752,7 +3757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="14.5">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -3760,7 +3765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="14.5">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -3768,7 +3773,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="14.5">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -3776,7 +3781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="14.5">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -3784,7 +3789,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" ht="14.5">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -3792,7 +3797,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="14.5">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -3800,7 +3805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="14.5">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -3808,7 +3813,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" ht="14.5">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -3816,7 +3821,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" ht="14.5">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -3824,7 +3829,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" ht="14.5">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
@@ -3832,7 +3837,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" ht="14.5">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -3840,7 +3845,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" ht="14.5">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
@@ -3848,7 +3853,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" ht="14.5">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -3856,7 +3861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" ht="14.5">
       <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
@@ -3864,7 +3869,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" ht="14.5">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -3872,7 +3877,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" ht="14.5">
       <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
@@ -3880,7 +3885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" ht="14.5">
       <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
@@ -3888,7 +3893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" ht="14.5">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
@@ -3896,7 +3901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" ht="14.5">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
@@ -3904,7 +3909,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" ht="14.5">
       <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
@@ -3912,7 +3917,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" ht="14.5">
       <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
@@ -3920,7 +3925,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" ht="14.5">
       <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
@@ -3928,7 +3933,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" ht="14.5">
       <c r="A45" s="2" t="s">
         <v>89</v>
       </c>
@@ -3936,7 +3941,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" ht="14.5">
       <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
@@ -3944,7 +3949,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" ht="14.5">
       <c r="A47" s="2" t="s">
         <v>93</v>
       </c>
@@ -3952,7 +3957,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="14.5">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -3960,7 +3965,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" ht="14.5">
       <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
@@ -3968,7 +3973,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" ht="14.5">
       <c r="A50" s="2" t="s">
         <v>99</v>
       </c>
@@ -3976,7 +3981,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" ht="14.5">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -3984,7 +3989,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" ht="14.5">
       <c r="A52" s="2" t="s">
         <v>101</v>
       </c>
@@ -3992,7 +3997,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" ht="14.5">
       <c r="A53" s="2" t="s">
         <v>103</v>
       </c>
@@ -4000,7 +4005,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" ht="14.5">
       <c r="A54" s="2" t="s">
         <v>105</v>
       </c>
@@ -4008,7 +4013,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" ht="14.5">
       <c r="A55" s="2" t="s">
         <v>107</v>
       </c>
@@ -4016,7 +4021,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" ht="14.5">
       <c r="A56" s="2" t="s">
         <v>109</v>
       </c>
@@ -4024,7 +4029,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" ht="14.5">
       <c r="A57" s="2" t="s">
         <v>111</v>
       </c>
@@ -4032,7 +4037,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" ht="14.5">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -4040,7 +4045,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" ht="14.5">
       <c r="A59" s="2" t="s">
         <v>115</v>
       </c>
@@ -4048,7 +4053,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" ht="14.5">
       <c r="A60" s="2" t="s">
         <v>117</v>
       </c>
@@ -4056,7 +4061,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" ht="14.5">
       <c r="A61" s="2" t="s">
         <v>119</v>
       </c>
@@ -4064,7 +4069,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" ht="14.5">
       <c r="A62" s="2" t="s">
         <v>121</v>
       </c>
@@ -4072,7 +4077,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" ht="14.5">
       <c r="A63" s="2" t="s">
         <v>123</v>
       </c>
@@ -4080,7 +4085,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" ht="14.5">
       <c r="A64" s="2" t="s">
         <v>125</v>
       </c>
@@ -4088,7 +4093,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" ht="14.5">
       <c r="A65" s="2" t="s">
         <v>127</v>
       </c>
@@ -4096,7 +4101,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" ht="14.5">
       <c r="A66" s="2" t="s">
         <v>129</v>
       </c>
@@ -4104,7 +4109,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" ht="14.5">
       <c r="A67" s="2" t="s">
         <v>131</v>
       </c>
@@ -4112,7 +4117,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" ht="14.5">
       <c r="A68" s="2" t="s">
         <v>133</v>
       </c>
@@ -4120,7 +4125,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" ht="14.5">
       <c r="A69" s="2" t="s">
         <v>135</v>
       </c>
@@ -4128,7 +4133,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" ht="14.5">
       <c r="A70" s="2" t="s">
         <v>137</v>
       </c>
@@ -5821,31 +5826,31 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="44" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="44" zoomScalePageLayoutView="20" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="48.54296875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="27" width="8.7109375" customWidth="1"/>
+    <col min="9" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5">
+    <row r="1" spans="1:9" ht="22">
       <c r="B1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75">
+    <row r="2" spans="1:9" ht="24.5">
       <c r="B2" s="13"/>
       <c r="C2" s="67" t="s">
         <v>329</v>
@@ -5876,14 +5881,14 @@
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="19.5">
+    <row r="5" spans="1:9" ht="18">
       <c r="B5" s="9"/>
       <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="19.5">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="19" t="s">
@@ -5898,7 +5903,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="17">
       <c r="B7" s="24" t="s">
         <v>333</v>
       </c>
@@ -5919,7 +5924,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
@@ -5927,7 +5932,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="B9" s="32"/>
       <c r="C9" s="28"/>
       <c r="D9" s="29"/>
@@ -5935,7 +5940,7 @@
       <c r="G9" s="30"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="B10" s="32"/>
       <c r="C10" s="28"/>
       <c r="D10" s="29"/>
@@ -5943,7 +5948,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="B11" s="32"/>
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
@@ -5951,7 +5956,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="B12" s="32"/>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
@@ -5959,7 +5964,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="B13" s="32"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
@@ -5967,7 +5972,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="B14" s="32"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
@@ -5975,7 +5980,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="B15" s="32"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
@@ -5983,7 +5988,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="B16" s="32"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
@@ -5991,7 +5996,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" ht="14.5">
       <c r="B17" s="32">
         <f>SUM(B8,B9,B10,B11,B12,B13,B14,B15)</f>
         <v>0</v>
@@ -6002,13 +6007,13 @@
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" ht="14.5">
       <c r="B18" s="9"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="2:8" ht="15.75">
+    <row r="19" spans="2:8" ht="15.5">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>339</v>
@@ -6029,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75">
+    <row r="20" spans="2:8" ht="15.5">
       <c r="B20" s="34"/>
       <c r="C20" s="40" t="s">
         <v>340</v>
@@ -12103,6 +12108,11 @@
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="D55:E55"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C8:C17 C25:C34 C43:C52" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>NAMES_INVENTORY</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="6">
@@ -12113,18 +12123,6 @@
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>REQUIREMENTS!$B:$B</xm:f>
-          </x14:formula1>
-          <xm:sqref>C8:C17 C25:C34 C43:C52</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12137,27 +12135,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="48.54296875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="27" width="8.7109375" customWidth="1"/>
+    <col min="9" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5">
+    <row r="1" spans="1:9" ht="22">
       <c r="B1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75">
+    <row r="2" spans="1:9" ht="24.5">
       <c r="B2" s="13"/>
       <c r="C2" s="67" t="s">
         <v>329</v>
@@ -12188,14 +12186,14 @@
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="19.5">
+    <row r="5" spans="1:9" ht="18">
       <c r="B5" s="9"/>
       <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="19.5">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="19" t="s">
@@ -12210,7 +12208,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="17">
       <c r="B7" s="24" t="s">
         <v>333</v>
       </c>
@@ -12231,7 +12229,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="B8" s="27">
         <v>1</v>
       </c>
@@ -12249,7 +12247,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="B9" s="32"/>
       <c r="C9" s="30" t="s">
         <v>312</v>
@@ -12265,7 +12263,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="B10" s="32"/>
       <c r="C10" s="30" t="s">
         <v>314</v>
@@ -12281,7 +12279,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="B11" s="27">
         <v>1</v>
       </c>
@@ -12299,7 +12297,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="B12" s="32"/>
       <c r="C12" s="30" t="s">
         <v>316</v>
@@ -12311,7 +12309,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="B13" s="32"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
@@ -12319,7 +12317,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="B14" s="32"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
@@ -12327,7 +12325,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="B15" s="32"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
@@ -12335,7 +12333,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="B16" s="32"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
@@ -12343,7 +12341,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" ht="14.5">
       <c r="B17" s="32">
         <f>SUM(B8,B9,B10,B11,B12,B13,B14,B15)</f>
         <v>2</v>
@@ -12354,13 +12352,13 @@
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" ht="14.5">
       <c r="B18" s="9"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="2:9" ht="15.75">
+    <row r="19" spans="2:9" ht="15.5">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>339</v>
@@ -12381,7 +12379,7 @@
         <v>5332</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15.75">
+    <row r="20" spans="2:9" ht="15.5">
       <c r="B20" s="34"/>
       <c r="C20" s="40" t="s">
         <v>340</v>
@@ -18588,27 +18586,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="48.54296875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="27" width="8.7109375" customWidth="1"/>
+    <col min="9" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5">
+    <row r="1" spans="1:9" ht="22">
       <c r="B1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75">
+    <row r="2" spans="1:9" ht="24.5">
       <c r="B2" s="13"/>
       <c r="C2" s="67" t="s">
         <v>329</v>
@@ -18639,14 +18637,14 @@
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="19.5">
+    <row r="5" spans="1:9" ht="18">
       <c r="B5" s="9"/>
       <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="19.5">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="19" t="s">
@@ -18661,7 +18659,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="17">
       <c r="B7" s="24" t="s">
         <v>333</v>
       </c>
@@ -18682,7 +18680,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="B8" s="27">
         <v>5</v>
       </c>
@@ -18702,7 +18700,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="B9" s="27">
         <v>1</v>
       </c>
@@ -18720,7 +18718,7 @@
         <v>8810</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="B10" s="27">
         <v>3</v>
       </c>
@@ -18740,7 +18738,7 @@
         <v>5914</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="B11" s="27">
         <v>2</v>
       </c>
@@ -18756,7 +18754,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="B12" s="27">
         <v>1</v>
       </c>
@@ -18770,7 +18768,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="B13" s="27">
         <v>1</v>
       </c>
@@ -18784,7 +18782,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="B14" s="27">
         <v>1</v>
       </c>
@@ -18798,7 +18796,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -18813,7 +18811,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="B16" s="32"/>
       <c r="C16" s="30" t="s">
         <v>140</v>
@@ -18825,7 +18823,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" ht="14.5">
       <c r="B17" s="27">
         <v>1</v>
       </c>
@@ -18841,7 +18839,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" ht="14.5">
       <c r="B18" s="27">
         <v>1</v>
       </c>
@@ -18855,7 +18853,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" ht="14.5">
       <c r="B19" s="27">
         <v>1</v>
       </c>
@@ -18869,7 +18867,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" ht="14.5">
       <c r="B20" s="27">
         <v>1</v>
       </c>
@@ -18883,7 +18881,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" ht="14.5">
       <c r="B21" s="27">
         <v>1</v>
       </c>
@@ -18897,7 +18895,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" ht="14.5">
       <c r="B22" s="27">
         <v>1</v>
       </c>
@@ -18911,7 +18909,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" ht="14.5">
       <c r="B23" s="32"/>
       <c r="C23" s="30" t="s">
         <v>98</v>
@@ -18923,7 +18921,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="29"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" ht="14.5">
       <c r="B24" s="32">
         <f>SUM(B8,B9,B10,B11,B12,B13,B14,B15)</f>
         <v>14</v>
@@ -18934,13 +18932,13 @@
       <c r="G24" s="28"/>
       <c r="H24" s="29"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" ht="14.5">
       <c r="B25" s="9"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="2:9" ht="15.75">
+    <row r="26" spans="2:9" ht="15.5">
       <c r="B26" s="34"/>
       <c r="C26" s="35" t="s">
         <v>339</v>
@@ -18961,7 +18959,7 @@
         <v>15144</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15.75">
+    <row r="27" spans="2:9" ht="15.5">
       <c r="B27" s="34"/>
       <c r="C27" s="40" t="s">
         <v>340</v>
@@ -25221,27 +25219,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="48.54296875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="27" width="8.7109375" customWidth="1"/>
+    <col min="9" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5">
+    <row r="1" spans="1:9" ht="22">
       <c r="B1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75">
+    <row r="2" spans="1:9" ht="24.5">
       <c r="B2" s="13"/>
       <c r="C2" s="67" t="s">
         <v>329</v>
@@ -25272,14 +25270,14 @@
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="19.5">
+    <row r="5" spans="1:9" ht="18">
       <c r="B5" s="9"/>
       <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="19.5">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="19" t="s">
@@ -25294,7 +25292,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="17">
       <c r="B7" s="24" t="s">
         <v>333</v>
       </c>
@@ -25315,7 +25313,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="B8" s="27"/>
       <c r="C8" s="30" t="s">
         <v>48</v>
@@ -25331,7 +25329,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="B9" s="32"/>
       <c r="C9" s="30" t="s">
         <v>34</v>
@@ -25347,7 +25345,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="B10" s="32"/>
       <c r="C10" s="30" t="s">
         <v>220</v>
@@ -25361,7 +25359,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="B11" s="32"/>
       <c r="C11" s="30" t="s">
         <v>255</v>
@@ -25373,7 +25371,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="B12" s="32"/>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
@@ -25381,7 +25379,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="B13" s="32"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
@@ -25389,7 +25387,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="B14" s="32"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
@@ -25397,7 +25395,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="B15" s="32"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
@@ -25405,7 +25403,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="B16" s="32"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
@@ -25413,7 +25411,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" ht="14.5">
       <c r="B17" s="32"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -25421,13 +25419,13 @@
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" ht="14.5">
       <c r="B18" s="9"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="2:8" ht="15.75">
+    <row r="19" spans="2:8" ht="15.5">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>339</v>
@@ -25448,7 +25446,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75">
+    <row r="20" spans="2:8" ht="15.5">
       <c r="B20" s="34"/>
       <c r="C20" s="40" t="s">
         <v>340</v>
@@ -31566,31 +31564,31 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="46.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="48.54296875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="27" width="8.7109375" customWidth="1"/>
+    <col min="9" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5">
+    <row r="1" spans="1:9" ht="22">
       <c r="B1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75">
+    <row r="2" spans="1:9" ht="24.5">
       <c r="B2" s="13"/>
       <c r="C2" s="67" t="s">
         <v>329</v>
@@ -31621,14 +31619,14 @@
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="19.5">
+    <row r="5" spans="1:9" ht="18">
       <c r="B5" s="9"/>
       <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="19.5">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="19" t="s">
@@ -31643,7 +31641,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="17">
       <c r="B7" s="24" t="s">
         <v>333</v>
       </c>
@@ -31664,7 +31662,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="14.5">
       <c r="B8" s="27"/>
       <c r="C8" s="30" t="s">
         <v>300</v>
@@ -31680,7 +31678,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="14.5">
       <c r="B9" s="32"/>
       <c r="C9" s="30" t="s">
         <v>34</v>
@@ -31698,7 +31696,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="14.5">
       <c r="B10" s="32"/>
       <c r="C10" s="28"/>
       <c r="D10" s="29"/>
@@ -31710,7 +31708,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="14.5">
       <c r="B11" s="32"/>
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
@@ -31718,7 +31716,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="14.5">
       <c r="B12" s="32"/>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
@@ -31726,7 +31724,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="14.5">
       <c r="B13" s="32"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
@@ -31734,7 +31732,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="14.5">
       <c r="B14" s="32"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
@@ -31742,7 +31740,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="14.5">
       <c r="B15" s="32"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
@@ -31750,7 +31748,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="14.5">
       <c r="B16" s="32"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
@@ -31758,7 +31756,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" ht="14.5">
       <c r="B17" s="32"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -31766,13 +31764,13 @@
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" ht="14.5">
       <c r="B18" s="9"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="2:8" ht="15.75">
+    <row r="19" spans="2:8" ht="15.5">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>339</v>
@@ -31793,7 +31791,7 @@
         <v>7538</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75">
+    <row r="20" spans="2:8" ht="15.5">
       <c r="B20" s="34"/>
       <c r="C20" s="40" t="s">
         <v>340</v>
@@ -37966,29 +37964,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="48.54296875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="27" width="8.7109375" customWidth="1"/>
+    <col min="11" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5">
+    <row r="1" spans="1:13" ht="22">
       <c r="B1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="24.75">
+    <row r="2" spans="1:13" ht="24.5">
       <c r="B2" s="13"/>
       <c r="C2" s="67" t="s">
         <v>329</v>
@@ -38019,14 +38017,14 @@
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5">
+    <row r="5" spans="1:13" ht="18">
       <c r="B5" s="9"/>
       <c r="D5" s="18"/>
       <c r="E5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5">
+    <row r="6" spans="1:13" ht="18">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="19" t="s">
@@ -38041,7 +38039,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75">
+    <row r="7" spans="1:13" ht="17">
       <c r="B7" s="24" t="s">
         <v>333</v>
       </c>
@@ -38062,7 +38060,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="14.5">
       <c r="B8" s="27">
         <v>1</v>
       </c>
@@ -38080,7 +38078,7 @@
         <v>3897</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="14.5">
       <c r="B9" s="27">
         <v>1</v>
       </c>
@@ -38098,7 +38096,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="14.5">
       <c r="B10" s="27">
         <v>1</v>
       </c>
@@ -38116,7 +38114,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="14.5">
       <c r="B11" s="27">
         <v>1</v>
       </c>
@@ -38137,7 +38135,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="14.5">
       <c r="B12" s="27">
         <v>1</v>
       </c>
@@ -38155,7 +38153,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="14.5">
       <c r="B13" s="32"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
@@ -38167,7 +38165,7 @@
         <v>4285</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="14.5">
       <c r="B14" s="32"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
@@ -38175,7 +38173,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="14.5">
       <c r="B15" s="32"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
@@ -38183,7 +38181,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="14.5">
       <c r="B16" s="32"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
@@ -38191,7 +38189,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" ht="14.5">
       <c r="B17" s="27">
         <v>3</v>
       </c>
@@ -38201,13 +38199,13 @@
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" ht="14.5">
       <c r="B18" s="9"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="2:8" ht="15.75">
+    <row r="19" spans="2:8" ht="15.5">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>339</v>
@@ -38228,7 +38226,7 @@
         <v>10167</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75">
+    <row r="20" spans="2:8" ht="15.5">
       <c r="B20" s="34"/>
       <c r="C20" s="40" t="s">
         <v>340</v>
